--- a/biology/Botanique/Épigée_rampante/Épigée_rampante.xlsx
+++ b/biology/Botanique/Épigée_rampante/Épigée_rampante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_rampante</t>
+          <t>Épigée_rampante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epigaea repens
 Epigaea repens, aussi connue sous le nom d'épigée rampante ou de fleur de mai, est une espèce de plantes à fleurs de la famille des Ericaceae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_rampante</t>
+          <t>Épigée_rampante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est un arbuste à croissance lente, prostré à tentaculaire qui préfère les habitats humides et ombragés et les sols acides (riches en humus). Il fait souvent partie du complexe de bruyère dans une forêt de chênes-marais. 
 Ses tiges sont ligneuses et les rameaux feuillés sont couverts de poils de couleur rouille. Les feuilles sont alternes, ovales (de forme ovale à base arrondie), persistantes, glabres dessus et plus ou moins poilues dessous, et portées sur de courts pétioles à poils rouille.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_rampante</t>
+          <t>Épigée_rampante</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Epigaea repens est l'emblème floral de la Nouvelle-Écosse et du Massachusetts . En déterrer un dans le Massachusetts est passible d'une amende de 50 $. 
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_rampante</t>
+          <t>Épigée_rampante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Utilisation chez les Amérindiens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cherokee utilisent une décoction de la plante pour faire vomir pour traiter les douleurs abdominales, et ils donnent une infusion de la plante aux enfants contre la diarrhée.  Une infusion est également utilisée pour les reins et pour les "maladies thoraciques". Ils prennent également une infusion composée pour l'indigestion. 
 Les Iroquois utilisent un composé pour les douleurs de l'accouchement lors de la parturition, utilisent une décoction composée pour les rhumatismes, prennent une décoction de feuilles pour l'indigestion, et ils prennent également une décoction de la plante entière ou des racines, tiges et feuilles prises pour les reins. 
